--- a/prices.xlsx
+++ b/prices.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,141 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>$BTC</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>21010.59773026401</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>$ETH</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>1553.473897142422</v>
+      <c r="B3" t="n">
+        <v>1554.785715460283</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>$BNB</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>297.6530979189396</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>$USDT</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1.00008747957838</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>$XRP</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.3820819415230368</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>$ADA</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.3467735492583858</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>$ORAI</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4.33239100301646</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>$MATIC</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1.002436446735486</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>$DOT</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5.759101466212225</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>$AVAX</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>16.92817395714722</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>$TRX</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.06172698540956646</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>$UNI</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>6.472586091797152</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>$ATOM</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>12.15501249251871</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>$LINK</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>6.623645579145057</v>
       </c>
     </row>
   </sheetData>
